--- a/Excel/Regression Test data.xlsx
+++ b/Excel/Regression Test data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="5895" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="15750" windowHeight="5895" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Departments" sheetId="1" r:id="rId1"/>
@@ -1555,8 +1555,8 @@
   <sheetPr/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1960,7 +1960,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
